--- a/final_preparation/FiniteDifference_SOR_solver_with_CrankNicolson_HW10/HW10_Group5_graded.xlsx
+++ b/final_preparation/FiniteDifference_SOR_solver_with_CrankNicolson_HW10/HW10_Group5_graded.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericzeng/Documents/numerical-method-for-finance/final_preparation/FiniteDifference_SOR_solver_with_CrankNicolson_HW10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericzeng/Documents/numerical-method-for-finance/MTH9821-numerical-method-for-financial-engineering/final_preparation/FiniteDifference_SOR_solver_with_CrankNicolson_HW10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBF5E39-CE6E-2948-9F4F-33AD968B35DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C457D388-5972-024B-902A-1B0FCC04AAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="34340" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="4120" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -406,24 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2215,27 +2198,27 @@
         <v>4</v>
       </c>
       <c r="B46" s="44">
-        <v>1.81179417873</v>
+        <v>7.0776500000000006E-2</v>
       </c>
       <c r="C46" s="44"/>
       <c r="D46" s="44">
-        <v>1.7894600190400001</v>
+        <v>4.8442300000000001E-2</v>
       </c>
       <c r="E46" s="44"/>
       <c r="F46" s="44">
-        <v>-0.58903052885200002</v>
+        <v>-0.58903099999999997</v>
       </c>
       <c r="G46" s="44">
-        <v>4.5325593688099998E-2</v>
+        <v>4.5325600000000001E-2</v>
       </c>
       <c r="H46" s="44">
-        <v>-1.9541049372999999</v>
+        <v>-1.9540999999999999</v>
       </c>
       <c r="I46" s="44">
-        <v>5.0316403509300001</v>
+        <v>5.0316400000000003</v>
       </c>
       <c r="J46" s="44">
-        <v>1.7271040707200001</v>
+        <v>1.39136E-2</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2246,31 +2229,33 @@
         <v>16</v>
       </c>
       <c r="B47" s="44">
-        <v>1.7570374073899999</v>
+        <v>1.6019700000000001E-2</v>
       </c>
       <c r="C47" s="44">
-        <v>0.96977759837300004</v>
+        <f>B47/B46</f>
+        <v>0.22634207681928323</v>
       </c>
       <c r="D47" s="44">
-        <v>1.75336268337</v>
+        <v>1.2345E-2</v>
       </c>
       <c r="E47" s="44">
-        <v>0.97982780543199999</v>
+        <f>D47/D46</f>
+        <v>0.2548392623801925</v>
       </c>
       <c r="F47" s="44">
-        <v>-0.532798775971</v>
+        <v>-0.53279900000000002</v>
       </c>
       <c r="G47" s="44">
-        <v>4.5286825726399998E-2</v>
+        <v>4.5286800000000002E-2</v>
       </c>
       <c r="H47" s="44">
-        <v>-1.89720329062</v>
+        <v>-1.8972</v>
       </c>
       <c r="I47" s="44">
-        <v>5.0385612486699998</v>
+        <v>5.0385600000000004</v>
       </c>
       <c r="J47" s="44">
-        <v>1.73402496845</v>
+        <v>6.9927100000000001E-3</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -2281,31 +2266,33 @@
         <v>64</v>
       </c>
       <c r="B48" s="44">
-        <v>1.74017025259</v>
+        <v>8.4742900000000002E-4</v>
       </c>
       <c r="C48" s="44">
-        <v>0.99040023010900002</v>
+        <f>B48/B47</f>
+        <v>5.2899180384152013E-2</v>
       </c>
       <c r="D48" s="44">
-        <v>1.7398802254800001</v>
+        <v>1.1374600000000001E-3</v>
       </c>
       <c r="E48" s="44">
-        <v>0.99231051395299996</v>
+        <f>D48/D47</f>
+        <v>9.2139327663021478E-2</v>
       </c>
       <c r="F48" s="44">
-        <v>-0.59028621136000003</v>
+        <v>-0.59028599999999998</v>
       </c>
       <c r="G48" s="44">
-        <v>4.6908909642999999E-2</v>
+        <v>4.6908900000000003E-2</v>
       </c>
       <c r="H48" s="44">
-        <v>-1.8850715334100001</v>
+        <v>-1.88507</v>
       </c>
       <c r="I48" s="44">
-        <v>5.0433403887899999</v>
+        <v>5.0433399999999997</v>
       </c>
       <c r="J48" s="44">
-        <v>1.7388041085799999</v>
+        <v>2.2135700000000002E-3</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2316,31 +2303,33 @@
         <v>256</v>
       </c>
       <c r="B49" s="44">
-        <v>1.7421317834400001</v>
+        <v>1.1141E-3</v>
       </c>
       <c r="C49" s="44">
-        <v>1.0011272062900001</v>
+        <f>B49/B48</f>
+        <v>1.3146824099718089</v>
       </c>
       <c r="D49" s="44">
-        <v>1.7418146462399999</v>
+        <v>7.9696400000000005E-4</v>
       </c>
       <c r="E49" s="44">
-        <v>1.0011118126</v>
+        <f>D49/D48</f>
+        <v>0.70065233063140686</v>
       </c>
       <c r="F49" s="44">
-        <v>-0.56287965904600001</v>
+        <v>-0.56288000000000005</v>
       </c>
       <c r="G49" s="44">
-        <v>4.6457352690400001E-2</v>
+        <v>4.6457400000000003E-2</v>
       </c>
       <c r="H49" s="44">
-        <v>-1.8783230978900001</v>
+        <v>-1.87832</v>
       </c>
       <c r="I49" s="44">
-        <v>5.0451203383200003</v>
+        <v>5.0451199999999998</v>
       </c>
       <c r="J49" s="44">
-        <v>1.7405840581000001</v>
+        <v>4.3362300000000001E-4</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -2446,28 +2435,28 @@
       <c r="A55" s="4">
         <v>4</v>
       </c>
-      <c r="B55" s="45">
-        <v>1.75163181607</v>
-      </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="47">
-        <v>1.7506960580499999</v>
-      </c>
-      <c r="E55" s="46"/>
-      <c r="F55" s="47">
-        <v>-0.57411773368300001</v>
-      </c>
-      <c r="G55" s="47">
-        <v>4.8421882718900001E-2</v>
-      </c>
-      <c r="H55" s="47">
-        <v>-2.2489352716100002</v>
-      </c>
-      <c r="I55" s="47">
-        <v>5.0357654607800004</v>
-      </c>
-      <c r="J55" s="48">
-        <v>1.73122918056</v>
+      <c r="B55" s="44">
+        <v>1.06141E-2</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44">
+        <v>9.6783800000000003E-3</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44">
+        <v>-0.57411800000000002</v>
+      </c>
+      <c r="G55" s="44">
+        <v>4.8421899999999997E-2</v>
+      </c>
+      <c r="H55" s="44">
+        <v>-2.2489400000000002</v>
+      </c>
+      <c r="I55" s="44">
+        <v>5.0357700000000003</v>
+      </c>
+      <c r="J55" s="44">
+        <v>9.7883999999999992E-3</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2477,32 +2466,34 @@
       <c r="A56" s="7">
         <v>16</v>
       </c>
-      <c r="B56" s="49">
-        <v>1.74103584437</v>
-      </c>
-      <c r="C56" s="35">
-        <v>0.99395079970199995</v>
-      </c>
-      <c r="D56" s="35">
-        <v>1.7406820375000001</v>
-      </c>
-      <c r="E56" s="35">
-        <v>0.99427997767200005</v>
-      </c>
-      <c r="F56" s="35">
-        <v>-0.55693445608900005</v>
-      </c>
-      <c r="G56" s="35">
-        <v>4.5685358867499998E-2</v>
-      </c>
-      <c r="H56" s="35">
-        <v>-1.9139844643799999</v>
-      </c>
-      <c r="I56" s="35">
-        <v>5.0436269988899998</v>
-      </c>
-      <c r="J56" s="36">
-        <v>1.73909071867</v>
+      <c r="B56" s="44">
+        <v>1.8162300000000001E-5</v>
+      </c>
+      <c r="C56" s="44">
+        <f>B56/B55</f>
+        <v>1.7111483781008282E-3</v>
+      </c>
+      <c r="D56" s="44">
+        <v>3.3564499999999998E-4</v>
+      </c>
+      <c r="E56" s="44">
+        <f>D56/D55</f>
+        <v>3.4679874111163231E-2</v>
+      </c>
+      <c r="F56" s="44">
+        <v>-0.55693400000000004</v>
+      </c>
+      <c r="G56" s="44">
+        <v>4.5685400000000001E-2</v>
+      </c>
+      <c r="H56" s="44">
+        <v>-1.91398</v>
+      </c>
+      <c r="I56" s="44">
+        <v>5.0436300000000003</v>
+      </c>
+      <c r="J56" s="44">
+        <v>1.9257300000000001E-3</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2512,32 +2503,34 @@
       <c r="A57" s="7">
         <v>64</v>
       </c>
-      <c r="B57" s="49">
-        <v>1.7402345505200001</v>
-      </c>
-      <c r="C57" s="35">
-        <v>0.99953976028400005</v>
-      </c>
-      <c r="D57" s="35">
-        <v>1.74023189053</v>
-      </c>
-      <c r="E57" s="35">
-        <v>0.99974139621000002</v>
-      </c>
-      <c r="F57" s="35">
-        <v>-0.57384842570600003</v>
-      </c>
-      <c r="G57" s="35">
-        <v>4.6707341003000002E-2</v>
-      </c>
-      <c r="H57" s="35">
-        <v>-1.8859199554799999</v>
-      </c>
-      <c r="I57" s="35">
-        <v>5.0451721474699998</v>
-      </c>
-      <c r="J57" s="36">
-        <v>1.74063586725</v>
+      <c r="B57" s="44">
+        <v>7.8313199999999997E-4</v>
+      </c>
+      <c r="C57" s="44">
+        <f>B57/B56</f>
+        <v>43.118547761021453</v>
+      </c>
+      <c r="D57" s="44">
+        <v>7.85792E-4</v>
+      </c>
+      <c r="E57" s="44">
+        <f>D57/D56</f>
+        <v>2.3411401927631874</v>
+      </c>
+      <c r="F57" s="44">
+        <v>-0.57384800000000002</v>
+      </c>
+      <c r="G57" s="44">
+        <v>4.67073E-2</v>
+      </c>
+      <c r="H57" s="44">
+        <v>-1.88592</v>
+      </c>
+      <c r="I57" s="44">
+        <v>5.0451800000000002</v>
+      </c>
+      <c r="J57" s="44">
+        <v>3.7500899999999999E-4</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -2547,47 +2540,38 @@
       <c r="A58" s="8">
         <v>256</v>
       </c>
-      <c r="B58" s="50">
-        <v>1.74107158229</v>
-      </c>
-      <c r="C58" s="35">
-        <v>1.0004809879000001</v>
-      </c>
-      <c r="D58" s="37">
-        <v>1.74104168128</v>
-      </c>
-      <c r="E58" s="35">
-        <v>1.0004653349699999</v>
-      </c>
-      <c r="F58" s="37">
-        <v>-0.56561681227899996</v>
-      </c>
-      <c r="G58" s="37">
-        <v>4.6537127937499999E-2</v>
-      </c>
-      <c r="H58" s="37">
-        <v>-1.87908962843</v>
-      </c>
-      <c r="I58" s="37">
-        <v>5.0454638855300002</v>
-      </c>
-      <c r="J58" s="38">
-        <v>1.74092760531</v>
+      <c r="B58" s="44">
+        <v>5.3900200000000003E-5</v>
+      </c>
+      <c r="C58" s="44">
+        <f>B58/B57</f>
+        <v>6.8826455820985483E-2</v>
+      </c>
+      <c r="D58" s="44">
+        <v>2.3999199999999999E-5</v>
+      </c>
+      <c r="E58" s="44">
+        <f>D58/D57</f>
+        <v>3.0541415539990225E-2</v>
+      </c>
+      <c r="F58" s="44">
+        <v>-0.56561700000000004</v>
+      </c>
+      <c r="G58" s="44">
+        <v>4.6537099999999998E-2</v>
+      </c>
+      <c r="H58" s="44">
+        <v>-1.8790899999999999</v>
+      </c>
+      <c r="I58" s="44">
+        <v>5.04549</v>
+      </c>
+      <c r="J58" s="44">
+        <v>6.7828200000000002E-5</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B64" s="43"/>
@@ -2622,6 +2606,13 @@
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
     </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="J67" s="45"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/final_preparation/FiniteDifference_SOR_solver_with_CrankNicolson_HW10/HW10_Group5_graded.xlsx
+++ b/final_preparation/FiniteDifference_SOR_solver_with_CrankNicolson_HW10/HW10_Group5_graded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericzeng/Documents/numerical-method-for-finance/MTH9821-numerical-method-for-financial-engineering/final_preparation/FiniteDifference_SOR_solver_with_CrankNicolson_HW10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C457D388-5972-024B-902A-1B0FCC04AAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354D8E61-2505-EF4F-99A7-E1B96F68EABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="4120" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>Crank-Nicolson with Projected SOR and α = 0.45</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Corrected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_amer bin </t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +189,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -282,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -407,6 +422,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2573,9 +2594,13 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
+    <row r="64" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="B64" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="47">
+        <v>5.0455539622999996</v>
+      </c>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="43"/>
